--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\CucumberPOM-Aug22\POM730June23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310088DF-A1DF-4C3A-AA0D-81A3B7917987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A9227-420A-4B8D-AAE9-369F44176959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0230600-19F9-444B-B489-275DB2C0039C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D0230600-19F9-444B-B489-275DB2C0039C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="db testing" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -79,16 +81,125 @@
   </si>
   <si>
     <t>birthdate</t>
+  </si>
+  <si>
+    <t>Badhan</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>12/09/1990</t>
+  </si>
+  <si>
+    <t>32323</t>
+  </si>
+  <si>
+    <t>a@b.com</t>
+  </si>
+  <si>
+    <t>www.xyz.com</t>
+  </si>
+  <si>
+    <t>7878</t>
+  </si>
+  <si>
+    <t>8989</t>
+  </si>
+  <si>
+    <t>12/09/1991</t>
+  </si>
+  <si>
+    <t>Bharat</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Priyanka1</t>
+  </si>
+  <si>
+    <t>Client already exists!</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>Record successfully created</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'alert')]</t>
+  </si>
+  <si>
+    <t>xpathActual</t>
+  </si>
+  <si>
+    <t>Priyanka2</t>
+  </si>
+  <si>
+    <t>Excel sheet</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; expected = new ArrayList&lt;&gt;()</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; actual = new ArrayList&lt;&gt;()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,13 +222,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,71 +547,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0EA642-6936-4AEA-B5B7-C5033878ECDD}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>411046</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>411047</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{3AD32C41-F26C-4750-BFA8-39B8A8EEB3BC}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{AC0273E9-FABD-42D8-850C-A376E2E4D18A}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{0E748550-75F7-4C36-8FE2-313694880B5D}"/>
+    <hyperlink ref="P3" r:id="rId4" xr:uid="{1CF048B4-2301-4300-9A7A-624523754A5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A983CB3B-791C-4883-8C63-A816E85BAED8}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>411046</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{686A60F9-BFA7-4E2F-80B7-CD4265D02126}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{98667707-9CE7-46EF-83C4-131853869D98}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C22F45-5719-4E0E-9FBB-13BE2A722E26}">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1">
+        <v>411046</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>411046</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O5" r:id="rId1" xr:uid="{1066B6E9-FEDC-4597-AB7C-C6F9254A71BD}"/>
+    <hyperlink ref="P5" r:id="rId2" xr:uid="{402752C8-51DE-419F-B2B3-15CDEAEED7A0}"/>
+    <hyperlink ref="O11" r:id="rId3" xr:uid="{6527439E-6A83-4FD6-82F9-D598E2EFDA79}"/>
+    <hyperlink ref="P11" r:id="rId4" xr:uid="{6A13A78B-E416-4CB8-97F1-F85AB1D3E872}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\CucumberPOM-Aug22\POM730June23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7A9227-420A-4B8D-AAE9-369F44176959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70208229-A421-4C4A-86B3-519C763EA906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D0230600-19F9-444B-B489-275DB2C0039C}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>ArrayList&lt;String&gt; actual = new ArrayList&lt;&gt;()</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +831,7 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
